--- a/Data y gráficos/Gráficos de Tesis/Sin tendencia/Descomposicion aditiva.xlsx
+++ b/Data y gráficos/Gráficos de Tesis/Sin tendencia/Descomposicion aditiva.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,23 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -45,9 +61,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,7 +117,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -412,12 +428,12 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,17 +453,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>36981</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>37072</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>37164</v>
       </c>
@@ -467,7 +483,7 @@
         <v>6.1158943973738209</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>37256</v>
       </c>
@@ -487,7 +503,7 @@
         <v>3.2463036993580481</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>37346</v>
       </c>
@@ -507,7 +523,7 @@
         <v>-10.068056836730779</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>37437</v>
       </c>
@@ -527,7 +543,7 @@
         <v>-21.062426149078089</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>37529</v>
       </c>
@@ -547,7 +563,7 @@
         <v>-5.5597323483676897</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>37621</v>
       </c>
@@ -567,7 +583,7 @@
         <v>-64.095892074577776</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>37711</v>
       </c>
@@ -587,7 +603,7 @@
         <v>-27.159222477717449</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>37802</v>
       </c>
@@ -607,7 +623,7 @@
         <v>101.1592878999537</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>37894</v>
       </c>
@@ -627,7 +643,7 @@
         <v>17.808932595617861</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>37986</v>
       </c>
@@ -647,7 +663,7 @@
         <v>-12.15916392270568</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>38077</v>
       </c>
@@ -667,7 +683,7 @@
         <v>-5.3591853277506667</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>38168</v>
       </c>
@@ -687,7 +703,7 @@
         <v>10.685928315046899</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>38260</v>
       </c>
@@ -707,7 +723,7 @@
         <v>-7.3421871302190462</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>38352</v>
       </c>
@@ -727,7 +743,7 @@
         <v>-58.773048192830927</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>38442</v>
       </c>
@@ -747,7 +763,7 @@
         <v>50.941279918491418</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>38533</v>
       </c>
@@ -767,7 +783,7 @@
         <v>16.922367941370219</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>38625</v>
       </c>
@@ -787,7 +803,7 @@
         <v>-24.31349225610974</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>38717</v>
       </c>
@@ -807,7 +823,7 @@
         <v>-1.3794204245505921</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>38807</v>
       </c>
@@ -827,7 +843,7 @@
         <v>-23.92379372863174</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>38898</v>
       </c>
@@ -847,7 +863,7 @@
         <v>-2.072174997385567</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>38990</v>
       </c>
@@ -867,7 +883,7 @@
         <v>31.300169288152901</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>39082</v>
       </c>
@@ -887,7 +903,7 @@
         <v>11.749031372524239</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>39172</v>
       </c>
@@ -907,7 +923,7 @@
         <v>13.900028927713141</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>39263</v>
       </c>
@@ -927,7 +943,7 @@
         <v>-9.6943590786644407</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>39355</v>
       </c>
@@ -947,7 +963,7 @@
         <v>-26.88015569218182</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>39447</v>
       </c>
@@ -967,7 +983,7 @@
         <v>49.985070621199988</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>39538</v>
       </c>
@@ -987,7 +1003,7 @@
         <v>-1.5894920382699109</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>39629</v>
       </c>
@@ -1007,7 +1023,7 @@
         <v>-23.985673979149521</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>39721</v>
       </c>
@@ -1027,7 +1043,7 @@
         <v>-15.620421315015969</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>39813</v>
       </c>
@@ -1047,7 +1063,7 @@
         <v>3.8657790560099952</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>39903</v>
       </c>
@@ -1067,7 +1083,7 @@
         <v>13.02874343415156</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>39994</v>
       </c>
@@ -1087,7 +1103,7 @@
         <v>-6.7757196007961591</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <v>40086</v>
       </c>
@@ -1107,7 +1123,7 @@
         <v>-0.60940739507999897</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>40178</v>
       </c>
@@ -1127,7 +1143,7 @@
         <v>-6.2272213432091412</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <v>40268</v>
       </c>
@@ -1147,7 +1163,7 @@
         <v>17.14286186308787</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <v>40359</v>
       </c>
@@ -1167,7 +1183,7 @@
         <v>-7.8609557851745047</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <v>40451</v>
       </c>
@@ -1187,7 +1203,7 @@
         <v>-12.258757260005851</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="2">
         <v>40543</v>
       </c>
@@ -1207,7 +1223,7 @@
         <v>18.806949702464792</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
         <v>40633</v>
       </c>
@@ -1227,7 +1243,7 @@
         <v>-12.539704494422621</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
         <v>40724</v>
       </c>
@@ -1247,7 +1263,7 @@
         <v>-2.694381942296681</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="2">
         <v>40816</v>
       </c>
@@ -1267,7 +1283,7 @@
         <v>17.499941246871561</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="2">
         <v>40908</v>
       </c>
@@ -1287,7 +1303,7 @@
         <v>-4.4321003937817132</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="2">
         <v>40999</v>
       </c>
@@ -1307,7 +1323,7 @@
         <v>-1.5395504496674599</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="2">
         <v>41090</v>
       </c>
@@ -1327,7 +1343,7 @@
         <v>-5.0070900309609749</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="2">
         <v>41182</v>
       </c>
@@ -1347,7 +1363,7 @@
         <v>2.9746316571705469</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="2">
         <v>41274</v>
       </c>
@@ -1367,7 +1383,7 @@
         <v>7.8985615834120999</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="2">
         <v>41364</v>
       </c>
@@ -1387,7 +1403,7 @@
         <v>-0.15266820409182569</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="2">
         <v>41455</v>
       </c>
@@ -1407,7 +1423,7 @@
         <v>-12.089092826719829</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" s="2">
         <v>41547</v>
       </c>
@@ -1427,7 +1443,7 @@
         <v>4.1388921504914</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" s="2">
         <v>41639</v>
       </c>
@@ -1447,7 +1463,7 @@
         <v>4.8727728737052693</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" s="2">
         <v>41729</v>
       </c>
@@ -1467,7 +1483,7 @@
         <v>-1.067404261141875</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" s="2">
         <v>41820</v>
       </c>
@@ -1487,7 +1503,7 @@
         <v>-9.2552792993295796</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" s="2">
         <v>41912</v>
       </c>
@@ -1507,7 +1523,7 @@
         <v>3.268821072908493</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" s="2">
         <v>42004</v>
       </c>
@@ -1527,7 +1543,7 @@
         <v>14.03916551270769</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" s="2">
         <v>42094</v>
       </c>
@@ -1547,7 +1563,7 @@
         <v>5.3870353739524566</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" s="2">
         <v>42185</v>
       </c>
@@ -1567,7 +1583,7 @@
         <v>-15.07512672063616</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" s="2">
         <v>42277</v>
       </c>
@@ -1587,7 +1603,7 @@
         <v>1.767162616085314</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" s="2">
         <v>42369</v>
       </c>
@@ -1607,7 +1623,7 @@
         <v>-4.3404351629843241</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" s="2">
         <v>42460</v>
       </c>
@@ -1627,7 +1643,7 @@
         <v>10.69726742649696</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63" s="2">
         <v>42551</v>
       </c>
@@ -1647,7 +1663,7 @@
         <v>-0.68855961715360881</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" s="2">
         <v>42643</v>
       </c>
@@ -1667,7 +1683,7 @@
         <v>-7.5702719745930986</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" s="2">
         <v>42735</v>
       </c>
@@ -1687,7 +1703,7 @@
         <v>6.7385486520296736</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66" s="2">
         <v>42825</v>
       </c>
@@ -1707,7 +1723,7 @@
         <v>7.0327949429002814</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" s="2">
         <v>42916</v>
       </c>
@@ -1727,7 +1743,7 @@
         <v>-14.280210978828</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" s="2">
         <v>43008</v>
       </c>
@@ -1747,7 +1763,7 @@
         <v>-11.612519162982959</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" s="2">
         <v>43100</v>
       </c>
@@ -1767,7 +1783,7 @@
         <v>7.0618265185741329</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" s="2">
         <v>43190</v>
       </c>
@@ -1787,7 +1803,7 @@
         <v>10.326051185858979</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" s="2">
         <v>43281</v>
       </c>
@@ -1807,7 +1823,7 @@
         <v>-4.5394544111728772</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72" s="2">
         <v>43373</v>
       </c>
@@ -1827,7 +1843,7 @@
         <v>-2.41247451805397</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" s="2">
         <v>43465</v>
       </c>
@@ -1847,7 +1863,7 @@
         <v>10.442882073041041</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74" s="2">
         <v>43555</v>
       </c>
@@ -1867,7 +1883,7 @@
         <v>-13.315666510317341</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75" s="2">
         <v>43646</v>
       </c>
@@ -1887,7 +1903,7 @@
         <v>-6.948446241044743</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76" s="2">
         <v>43738</v>
       </c>
@@ -1907,7 +1923,7 @@
         <v>1.888485947711714</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77" s="2">
         <v>43830</v>
       </c>
@@ -1927,7 +1943,7 @@
         <v>1.644801903667183</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78" s="2">
         <v>43921</v>
       </c>
@@ -1947,7 +1963,7 @@
         <v>-26.321487490297059</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79" s="2">
         <v>44012</v>
       </c>
@@ -1967,7 +1983,7 @@
         <v>16.105141194586501</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80" s="2">
         <v>44104</v>
       </c>
@@ -1987,7 +2003,7 @@
         <v>11.049957591324629</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" s="2">
         <v>44196</v>
       </c>
@@ -2007,7 +2023,7 @@
         <v>3.2429520521199429</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" s="2">
         <v>44286</v>
       </c>
@@ -2027,7 +2043,7 @@
         <v>-1.752675240494356</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" s="2">
         <v>44377</v>
       </c>
@@ -2047,7 +2063,7 @@
         <v>-2.8179346502123588</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84" s="2">
         <v>44469</v>
       </c>
@@ -2067,7 +2083,7 @@
         <v>16.393661483373862</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85" s="2">
         <v>44561</v>
       </c>
@@ -2087,7 +2103,7 @@
         <v>7.8397668882979978</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86" s="2">
         <v>44651</v>
       </c>
@@ -2107,12 +2123,12 @@
         <v>-3.6400250186476488</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87" s="2">
         <v>44742</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88" s="2">
         <v>44834</v>
       </c>
